--- a/biology/Médecine/Déclaration_d'Helsinki/Déclaration_d'Helsinki.xlsx
+++ b/biology/Médecine/Déclaration_d'Helsinki/Déclaration_d'Helsinki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_d%27Helsinki</t>
+          <t>Déclaration_d'Helsinki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La déclaration d'Helsinki (Document 17.C) est un document officiel de l'Association médicale mondiale, représentante des médecins dans le monde. Adoptée en 1964 à Helsinki (Finlande), elle fut révisée plusieurs fois lors d'assemblées générales :
 Adoptée par la 18e Assemblée générale, Helsinki, juin 1964 et amendée par les :
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_d%27Helsinki</t>
+          <t>Déclaration_d'Helsinki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,9 +533,11 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Déclaration d'Helsinki[1], élaborée par l'Association médicale mondiale, est une déclaration de principes éthiques dont l'objectif est de fournir des recommandations aux médecins et autres participants à la recherche médicale sur des êtres humains. Celle-ci comprend également les études réalisées sur des données à caractère personnel ou des échantillons biologiques non anonymes ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Déclaration d'Helsinki, élaborée par l'Association médicale mondiale, est une déclaration de principes éthiques dont l'objectif est de fournir des recommandations aux médecins et autres participants à la recherche médicale sur des êtres humains. Celle-ci comprend également les études réalisées sur des données à caractère personnel ou des échantillons biologiques non anonymes ;
 La mission du médecin est de promouvoir et de préserver la santé de l'être humain. Il exerce ce devoir dans la plénitude de son savoir et de sa conscience.
 Le Serment de Genève de l'Association médicale mondiale lie le médecin dans les termes suivants : « La santé de mon patient sera mon premier souci » et le Code international d'éthique médicale stipule : « le médecin devra agir uniquement dans l'intérêt de son patient lorsqu'il lui procure des soins qui peuvent avoir pour conséquence un affaiblissement de sa condition physique ou mentale ».
 Les progrès de la médecine sont fondés sur des recherches qui, in fine, peuvent imposer de recourir à l'expérimentation humaine.
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_d%27Helsinki</t>
+          <t>Déclaration_d'Helsinki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Principes fondamentaux applicables à toute forme de recherche médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans la recherche médicale, le devoir du médecin est de protéger la vie, la santé, la dignité et l'intimité de la personne.
 La recherche médicale sur des êtres humains doit se conformer aux principes scientifiques généralement reconnus. Elle doit se fonder sur une connaissance approfondie de la littérature scientifique et des autres sources pertinentes d'information ainsi que sur une expérimentation appropriée réalisée en laboratoire et, le cas échéant, sur l'animal.
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_d%27Helsinki</t>
+          <t>Déclaration_d'Helsinki</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,7 +622,9 @@
           <t>Principes applicables à la recherche médicale conduite au cours d'un traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le médecin ne peut mener une recherche médicale au cours d'un traitement que dans la mesure où cette recherche est justifiée par un possible intérêt diagnostique, thérapeutique ou de prévention. Quand la recherche est associée à des soins médicaux, les patients se prêtant à la recherche doivent bénéficier de règles supplémentaires de protection.
 Les avantages, les risques, les contraintes et l'efficacité d'une nouvelle méthode doivent être évalués par comparaison avec les meilleures méthodes diagnostiques, thérapeutiques ou de prévention en usage. Cela n'exclut ni le recours au placebo ni l'absence d'intervention dans les études pour lesquelles il n'existe pas de méthode diagnostique, thérapeutique ou de prévention éprouvée.
@@ -623,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_d%27Helsinki</t>
+          <t>Déclaration_d'Helsinki</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,11 +659,13 @@
           <t>Note explicative concernant le paragraphe 29</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L' AMM note avec préoccupation que le paragraphe 29 de la Déclaration d'Helsinki (octobre 2000) est l'objet d'interprétations diverses et de possibles malentendus. Elle réaffirme par ailleurs que les essais avec témoins sous placebo ne doivent être utilisés qu'avec de grandes précautions et, d'une façon générale, lorsqu'il n'existe pas de traitement éprouvé. Toutefois, même s'il existe un traitement éprouvé, les essais avec témoins sous placebo peuvent être éthiquement acceptables dans les conditions suivantes :
 lorsque, pour des raisons méthodologiques impérieuses et scientifiquement solides, il n'existe pas d'autres moyens qui permettent de déterminer l'efficacité ou l'innocuité d'une méthode prophylactique, diagnostique ou thérapeutique ;
-ou lorsqu'une méthode prophylactique, diagnostique ou thérapeutique est mise à l'essai pour une affection bénigne et que la participation à l'essai n'expose pas à des risques supplémentaires de dommages significatifs ou durables[2].
+ou lorsqu'une méthode prophylactique, diagnostique ou thérapeutique est mise à l'essai pour une affection bénigne et que la participation à l'essai n'expose pas à des risques supplémentaires de dommages significatifs ou durables.
 Toutes les dispositions énoncées dans la DoH doivent être respectées, en particulier, la nécessité d'un examen éthique et scientifique approfondi.
 </t>
         </is>
@@ -657,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_d%27Helsinki</t>
+          <t>Déclaration_d'Helsinki</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,7 +695,9 @@
           <t>Note explicative concernant le paragraphe 30</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AMM réaffirme par la présente qu'il est important, pendant la phase de planification d'une étude, d'identifier l'accès après étude des patients impliqués aux traitements prophylactiques, diagnostiques et thérapeutiques, jugés comme bénéfiques au cours de l'étude ou bien à des soins adéquats. Le mode d'accès post étude ou les autres soins doivent être décrits dans le protocole de l'étude afin que le comité d'éthique puisse étudier ces dispositions.
 </t>
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_d%27Helsinki</t>
+          <t>Déclaration_d'Helsinki</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,10 +728,12 @@
           <t>Note explicative concernant paragraphes 20 et 34 : La philosophie générale de la justice et de la bienfaisance</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">la justice revêt une importance primordiale, car elle englobe la nécessité d'une répartition équitable des risques et des bénéfices parmi tous les participants, ainsi qu'un accès égal aux avancées et aux découvertes engendrées par la recherche. Cette équité est essentielle pour garantir que personne ne supporte un fardeau disproportionné tout en permettant à tous de bénéficier des résultats de manière équitable. en outre, la bienfaisance constitue un pilier fondamental de l'éthique de la recherche. Elle implique l'obligation morale de faire le bien, de s'efforcer d'optimiser les avantages potentiels découlant de la recherche tout en minimisant les dommages et les risques encourus par les participants. Cela signifie que les chercheurs doivent prendre des mesures pour maximiser les résultats positifs de leurs travaux tout en veillant à ce que les participants soient protégés contre les préjudices potentiels.
-Il est notable que la Déclaration d'Helsinki, au fil du temps, a évolué d'un document qui se concentrait principalement sur les aspects éthiques de la recherche vers un document qui accorde une attention croissante à la justice sociale. Cette transition reflète la prise de conscience croissante de l'importance de garantir que la recherche médicale soit menée de manière éthique tout en promouvant l'équité et l'accès égal aux avantages pour tous les individus, indépendamment de leur statut social, économique ou culturel[3].
+Il est notable que la Déclaration d'Helsinki, au fil du temps, a évolué d'un document qui se concentrait principalement sur les aspects éthiques de la recherche vers un document qui accorde une attention croissante à la justice sociale. Cette transition reflète la prise de conscience croissante de l'importance de garantir que la recherche médicale soit menée de manière éthique tout en promouvant l'équité et l'accès égal aux avantages pour tous les individus, indépendamment de leur statut social, économique ou culturel.
 </t>
         </is>
       </c>
@@ -720,7 +744,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_d%27Helsinki</t>
+          <t>Déclaration_d'Helsinki</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -738,11 +762,13 @@
           <t>Avenir</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les controverses et les divisions nationales concernant le texte ont perduré. La FDA des États-Unis a refusé d'accepter la version de 2000 et les modifications ultérieures, ne reconnaissant que la troisième révision datant de 1989[1],les modifications ultérieures, ne reconnaissant que la troisième révision datant de 1989. En 2006, elle a même déclaré son intention d'éliminer toute référence à la Déclaration.
-À la suite de discussions, qui ont pris en compte les inquiétudes exprimées[2], une règle finale a été publiée le 28 avril 2008, remplaçant la Déclaration d'Helsinki par les Bonnes Pratiques Cliniques, en vigueur à partir d'octobre 2008[4]. Cette décision a suscité des préoccupations concernant l'affaiblissement apparent des protections pour les sujets de recherche en dehors des États-Unis.
-En outre, le NIH a exclu toute mention de la Déclaration d'Helsinki dans son programme de formation sur la protection des participants à la recherche humaine, De même l'Union européenne ne fait référence qu'à la version de 1996 dans sa Directive sur les essais cliniques publiée en 2001[5],bien que la Commission européenne évoque la révision de 2000.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les controverses et les divisions nationales concernant le texte ont perduré. La FDA des États-Unis a refusé d'accepter la version de 2000 et les modifications ultérieures, ne reconnaissant que la troisième révision datant de 1989,les modifications ultérieures, ne reconnaissant que la troisième révision datant de 1989. En 2006, elle a même déclaré son intention d'éliminer toute référence à la Déclaration.
+À la suite de discussions, qui ont pris en compte les inquiétudes exprimées, une règle finale a été publiée le 28 avril 2008, remplaçant la Déclaration d'Helsinki par les Bonnes Pratiques Cliniques, en vigueur à partir d'octobre 2008. Cette décision a suscité des préoccupations concernant l'affaiblissement apparent des protections pour les sujets de recherche en dehors des États-Unis.
+En outre, le NIH a exclu toute mention de la Déclaration d'Helsinki dans son programme de formation sur la protection des participants à la recherche humaine, De même l'Union européenne ne fait référence qu'à la version de 1996 dans sa Directive sur les essais cliniques publiée en 2001,bien que la Commission européenne évoque la révision de 2000.
 </t>
         </is>
       </c>
